--- a/OEE_Report1.xlsx
+++ b/OEE_Report1.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -25,12 +26,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
       <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b val="1"/>
@@ -75,19 +71,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -105,7 +92,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -468,9 +455,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG8"/>
+  <dimension ref="A1:AG9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -730,20 +717,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2 กะยาว / TOT</t>
+          <t>กะยาวบ่าย / 2OT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2021-11-01</t>
+          <t>2021-10-05</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>90067862</v>
+        <v>90060694</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>031-0460W</t>
+          <t>031-0487</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -753,88 +740,112 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>BES 450 BT GN R3 SEMI</t>
+          <t>BES 90 LH R3</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>10001662</v>
       </c>
       <c r="I7" t="n">
+        <v>96</v>
+      </c>
+      <c r="J7" t="n">
+        <v>36</v>
+      </c>
+      <c r="K7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
+        <v>630</v>
+      </c>
+      <c r="M7" t="n">
+        <v>434</v>
+      </c>
+      <c r="N7" t="n">
+        <v>594</v>
+      </c>
+      <c r="O7" t="n">
+        <v>37000</v>
+      </c>
+      <c r="P7" t="n">
+        <v>41664</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>57024</v>
+      </c>
+      <c r="R7" t="n">
+        <v>35904</v>
+      </c>
+      <c r="S7" t="n">
         <v>0</v>
       </c>
-      <c r="K7" t="n">
-        <v>9</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1260</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1380</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1260</v>
-      </c>
-      <c r="O7" t="n">
-        <v>13050</v>
-      </c>
-      <c r="P7" t="n">
-        <v>91080</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>83160</v>
-      </c>
-      <c r="R7" t="n">
-        <v>13003</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3</v>
-      </c>
       <c r="T7" t="n">
-        <v>13000</v>
+        <v>35904</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>กะมีนบุรี</t>
-        </is>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>0.31</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>88.81%</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>64.88%</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>97.04%</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>97.04%</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>97.04%</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>97.04%</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>86.18%</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>62.96%</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>86.18%</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>62.96%</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -845,20 +856,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2 กะยาว / TOT</t>
+          <t>กะยาวเช้า / 1OT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2021-11-01</t>
+          <t>2021-10-06</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>90065293</v>
+        <v>90060694</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>031-0444</t>
+          <t>031-0487</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -868,94 +879,257 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>BES 450 PU GN R3 (New mould)</t>
+          <t>BES 90 LH R3</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>10001662</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="L8" t="n">
-        <v>1260</v>
+        <v>630</v>
       </c>
       <c r="M8" t="n">
-        <v>1380</v>
+        <v>304.2</v>
       </c>
       <c r="N8" t="n">
-        <v>1260</v>
+        <v>630</v>
       </c>
       <c r="O8" t="n">
-        <v>14000</v>
+        <v>23800</v>
       </c>
       <c r="P8" t="n">
-        <v>91080</v>
+        <v>29203.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>83160</v>
+        <v>60480</v>
       </c>
       <c r="R8" t="n">
-        <v>13003</v>
+        <v>23448</v>
       </c>
       <c r="S8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>13000</v>
+        <v>23448</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>กะมีนบุรี</t>
-        </is>
-      </c>
-      <c r="V8" t="n">
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>91.78%</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>96.03%</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>81.5%</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>39.35%</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>98.52%</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>98.52%</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>98.52%</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>98.52%</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>73.69%</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>37.23%</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>73.69%</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>37.23%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>TLT</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>กะยาวบ่าย / 2OT</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2021-10-06</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>90060694</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>031-0487</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>ROBOTIC 1</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>BES 90 LH R3</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10001662</v>
+      </c>
+      <c r="I9" t="n">
+        <v>96</v>
+      </c>
+      <c r="J9" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="AD8" t="n">
+      <c r="K9" t="n">
+        <v>25</v>
+      </c>
+      <c r="L9" t="n">
+        <v>630</v>
+      </c>
+      <c r="M9" t="n">
+        <v>252.2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>630</v>
+      </c>
+      <c r="O9" t="n">
+        <v>19352</v>
+      </c>
+      <c r="P9" t="n">
+        <v>24211.2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>60480</v>
+      </c>
+      <c r="R9" t="n">
+        <v>18457</v>
+      </c>
+      <c r="S9" t="n">
         <v>0</v>
       </c>
-      <c r="AE8" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0.31</v>
+      <c r="T9" t="n">
+        <v>18457</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>90.09%</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>96.03%</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>79.93%</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>32.0%</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>95.38%</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>95.38%</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>95.38%</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>95.38%</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>68.68%</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>29.31%</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>68.68%</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>29.31%</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/OEE_Report1.xlsx
+++ b/OEE_Report1.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG9"/>
+  <dimension ref="A1:AG13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -717,12 +717,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>กะยาวบ่าย / 2OT</t>
+          <t>กะยาวเช้า / 1OT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2021-10-05</t>
+          <t>2021-10-06</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -750,37 +750,37 @@
         <v>96</v>
       </c>
       <c r="J7" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L7" t="n">
         <v>630</v>
       </c>
       <c r="M7" t="n">
-        <v>434</v>
+        <v>304.2</v>
       </c>
       <c r="N7" t="n">
-        <v>594</v>
+        <v>630</v>
       </c>
       <c r="O7" t="n">
-        <v>37000</v>
+        <v>23800</v>
       </c>
       <c r="P7" t="n">
-        <v>41664</v>
+        <v>29203.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>57024</v>
+        <v>60480</v>
       </c>
       <c r="R7" t="n">
-        <v>35904</v>
+        <v>23448</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>35904</v>
+        <v>23448</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
@@ -789,62 +789,62 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>91.78%</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>96.03%</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>88.81%</t>
+          <t>81.5%</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>64.88%</t>
+          <t>39.35%</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>97.04%</t>
+          <t>97.08%</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>97.04%</t>
+          <t>98.52%</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>97.04%</t>
+          <t>87.76%</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>97.04%</t>
+          <t>98.52%</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>86.18%</t>
+          <t>72.61%</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>62.96%</t>
+          <t>37.23%</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>86.18%</t>
+          <t>65.65%</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>62.96%</t>
+          <t>37.23%</t>
         </is>
       </c>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>กะยาวเช้า / 1OT</t>
+          <t>กะยาวบ่าย / 2OT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -898,22 +898,22 @@
         <v>630</v>
       </c>
       <c r="M8" t="n">
-        <v>304.2</v>
+        <v>252.2</v>
       </c>
       <c r="N8" t="n">
         <v>630</v>
       </c>
       <c r="O8" t="n">
-        <v>23800</v>
+        <v>19352</v>
       </c>
       <c r="P8" t="n">
-        <v>29203.2</v>
+        <v>24211.2</v>
       </c>
       <c r="Q8" t="n">
         <v>60480</v>
       </c>
       <c r="R8" t="n">
-        <v>23448</v>
+        <v>18457</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -928,7 +928,7 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>91.78%</t>
+          <t>90.09%</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -938,52 +938,52 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>81.5%</t>
+          <t>79.93%</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>39.35%</t>
+          <t>32.0%</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>98.52%</t>
+          <t>97.08%</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>98.52%</t>
+          <t>95.38%</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>98.52%</t>
+          <t>69.08%</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>98.52%</t>
+          <t>95.38%</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>73.69%</t>
+          <t>69.9%</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>37.23%</t>
+          <t>29.31%</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>73.69%</t>
+          <t>49.74%</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>37.23%</t>
+          <t>29.31%</t>
         </is>
       </c>
     </row>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2021-10-06</t>
+          <t>2021-10-05</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -1028,101 +1028,657 @@
         <v>96</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="K9" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>630</v>
       </c>
       <c r="M9" t="n">
-        <v>252.2</v>
+        <v>434</v>
       </c>
       <c r="N9" t="n">
+        <v>594</v>
+      </c>
+      <c r="O9" t="n">
+        <v>37000</v>
+      </c>
+      <c r="P9" t="n">
+        <v>41664</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>57024</v>
+      </c>
+      <c r="R9" t="n">
+        <v>35904</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>23448</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>88.81%</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>64.88%</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>97.08%</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>97.04%</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>134.38%</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>97.04%</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>86.21%</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>62.96%</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>119.34%</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>62.96%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>TLT</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>กะยาวเช้า / 1OT</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2021-10-27</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>90065292</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>031-0444</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ROBOTIC 1</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>BES 450 PU GN R3 (New mould)</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10001662</v>
+      </c>
+      <c r="I10" t="n">
+        <v>66</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>30</v>
+      </c>
+      <c r="L10" t="n">
         <v>630</v>
       </c>
-      <c r="O9" t="n">
-        <v>19352</v>
-      </c>
-      <c r="P9" t="n">
-        <v>24211.2</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>60480</v>
-      </c>
-      <c r="R9" t="n">
-        <v>18457</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>18457</v>
-      </c>
-      <c r="U9" t="inlineStr">
+      <c r="M10" t="n">
+        <v>263.6</v>
+      </c>
+      <c r="N10" t="n">
+        <v>630</v>
+      </c>
+      <c r="O10" t="n">
+        <v>13860</v>
+      </c>
+      <c r="P10" t="n">
+        <v>17397.6</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>41580</v>
+      </c>
+      <c r="R10" t="n">
+        <v>13440</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>23448</v>
+      </c>
+      <c r="U10" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>90.09%</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>96.03%</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>79.93%</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>32.0%</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>95.38%</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>95.38%</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>95.38%</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>95.38%</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>68.68%</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>29.31%</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>68.68%</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>29.31%</t>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>88.62%</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>95.24%</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>79.67%</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>96.51%</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>96.97%</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>158.49%</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>96.97%</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>68.14%</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>30.78%</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>111.89%</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>30.78%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>TLT</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>กะยาวบ่าย / 2OT</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2021-10-27</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>90065292</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>031-0444</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>ROBOTIC 1</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>BES 450 PU GN R3 (New mould)</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10001662</v>
+      </c>
+      <c r="I11" t="n">
+        <v>66</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>30</v>
+      </c>
+      <c r="L11" t="n">
+        <v>630</v>
+      </c>
+      <c r="M11" t="n">
+        <v>104.4</v>
+      </c>
+      <c r="N11" t="n">
+        <v>630</v>
+      </c>
+      <c r="O11" t="n">
+        <v>3100</v>
+      </c>
+      <c r="P11" t="n">
+        <v>6890.4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>41580</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2928</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>23448</v>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>71.26%</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>95.24%</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>44.99%</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>7.46%</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>96.51%</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>94.45%</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>34.53%</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>94.45%</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>30.94%</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>6.71%</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>11.07%</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>6.71%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>TLT</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>กะยาวเช้า / 1OT</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2021-10-28</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>90065293</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>031-0444</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>ROBOTIC 1</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>BES 450 PU GN R3 (New mould)</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10001662</v>
+      </c>
+      <c r="I12" t="n">
+        <v>66</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>630</v>
+      </c>
+      <c r="M12" t="n">
+        <v>192.7</v>
+      </c>
+      <c r="N12" t="n">
+        <v>630</v>
+      </c>
+      <c r="O12" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P12" t="n">
+        <v>12718.2</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>41580</v>
+      </c>
+      <c r="R12" t="n">
+        <v>8760</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>23448</v>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>78.63%</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>24.05%</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>87.6%</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>87.6%</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>87.6%</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>87.6%</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>68.88%</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>21.07%</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>68.88%</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>21.07%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>TLT</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>กะยาวบ่าย / 2OT</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2021-10-27</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>90065293</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>031-0444</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>ROBOTIC 1</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>BES 450 PU GN R3 (New mould)</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10001662</v>
+      </c>
+      <c r="I13" t="n">
+        <v>66</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>630</v>
+      </c>
+      <c r="M13" t="n">
+        <v>60</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>0.0%</t>
         </is>
       </c>
     </row>
